--- a/biology/Botanique/Effet_lotus/Effet_lotus.xlsx
+++ b/biology/Botanique/Effet_lotus/Effet_lotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'effet lotus appelé aussi autonettoyage de la feuille, est un phénomène de superhydrophobie causé par une rugosité nanométrique. Son nom provient du lotus (Nelumbo spp.), dont les feuilles présentent cette caractéristique. D’autres plantes, comme les feuilles de capucine (Tropaeolum spp.), de chou, de roseau (Phragmites spp.), de taro (Colocasia esculenta) ou de l'ancolie (Aguilegia spp.), et certains animaux (par exemple les plumes des oiseaux aquatiques), notamment des insectes, montrent le même comportement. L'effet lotus confère à la surface des capacités autonettoyantes : en s'écoulant, les gouttes d'eau emportent avec elles les particules de poussières qui réduiraient la capacité photosynthétique d'une feuille (les gouttes d'eau bloquent l'accès du CO2 aux stomates et les poussières absorbent la lumière visible qui permet de faire la photosynthèse). La faculté d’autonettoyage des surfaces hydrophobes à structure microscopique et nanoscopique a été découverte dans les années 1970 et son application aux produits biomimétiques remonte au milieu des années 1990[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet lotus appelé aussi autonettoyage de la feuille, est un phénomène de superhydrophobie causé par une rugosité nanométrique. Son nom provient du lotus (Nelumbo spp.), dont les feuilles présentent cette caractéristique. D’autres plantes, comme les feuilles de capucine (Tropaeolum spp.), de chou, de roseau (Phragmites spp.), de taro (Colocasia esculenta) ou de l'ancolie (Aguilegia spp.), et certains animaux (par exemple les plumes des oiseaux aquatiques), notamment des insectes, montrent le même comportement. L'effet lotus confère à la surface des capacités autonettoyantes : en s'écoulant, les gouttes d'eau emportent avec elles les particules de poussières qui réduiraient la capacité photosynthétique d'une feuille (les gouttes d'eau bloquent l'accès du CO2 aux stomates et les poussières absorbent la lumière visible qui permet de faire la photosynthèse). La faculté d’autonettoyage des surfaces hydrophobes à structure microscopique et nanoscopique a été découverte dans les années 1970 et son application aux produits biomimétiques remonte au milieu des années 1990.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Principe de fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1.    En raison de leur haute tension superficielle, les gouttes d’eau ont tendance à rétrécir leur surface et par conséquent à atteindre une forme sphérique.
 Au contact d’une surface, les forces d’adhérence des gouttes à la surface sont telles, qu'elles conduisent à l’humectage de celle-ci. En fonction de la texture de la surface et selon la tension superficielle des gouttes du liquide, on peut trouver un humectage complet comme un humectage partiel.
@@ -551,11 +565,13 @@
           <t>Objet industriel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas d’autonettoyage par des surfaces microscopiques et nanoscopiques superhydrophobes, il s’agit d’un phénomène purement chimico-physique que l’on peut appliquer de façon biomimétique à des surfaces techniques. Le premier produit commercial a été en 1999 la peinture autonettoyante pour façades (Lotusan®). Entre-temps il existe avec ce seul produit environ 50 000 bâtiments de par le monde qui ont été enduits de “revêtements-Lotus”.
 Les verres autonettoyants constituent un autre domaine d’utilisation : ils ont été installés dans les capteurs optiques situés aux péages des autoroutes allemandes. La Société EVONIK AG a, quant à elle, développé des prototypes de laques et de matières plastiques. 
-Une entreprise textile italienne a appliqué le principe de l'effet lotus à des tissus[2].
+Une entreprise textile italienne a appliqué le principe de l'effet lotus à des tissus.
 La publicité utilise souvent à dessein la dénomination mensongère “easy to clean “ (facile à nettoyer) pour des surfaces qui n’ont rien à voir avec les surfaces autonettoyantes d’après le principe du lotus.
 </t>
         </is>
@@ -585,7 +601,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que le phénomène de l’autonettoyage du lotus soit connu en Asie depuis au moins 2000 ans (le lotus est entre autres le symbole de la pureté dans la religion bouddhique), ce n’est que depuis le début des années 70, avec l’introduction du microscope électronique, que le phénomène lotus a été étudié par le botaniste Wilhelm Barthlott (Barthlott et Ehler, 1977; Barthlott et Wollenweber, 1982; Barthlott, 1992). À l’origine, les travaux ont été surtout conduits sur la capucine. La première analyse scientifique fondamentale eut lieu sur les feuilles de lotus (Barthlott et Neinhuis, 1997). Dans le milieu des années 1990, ces deux auteurs réussirent également la première transposition sur des prototypes techniques et les premières coopérations industrielles virent le jour. Les procédés sont brevetés. Depuis la fin des années 1990, ce sont avant tout des scientifiques en physique et science des matériaux qui ont exploré ce phénomène de façon intensive et il existe entre-temps une littérature extrêmement importante ainsi que des douzaines de brevets qui découlent du brevet Lotus-Effekt®. 
 Pour le décodage du principe de fonctionnement des surfaces autonettoyantes du lotus et son application en matière de produits techniques, les travaux de Wilhelm Barthlott ont été récompensés par de nombreux prix (Prix Karl-Heinz-Beckurts en 1997, nomination pour le “Prix allemand du Président de la République” en 1998, Prix de la recherche de la Fondation Philip Morris en 1999, Prix allemand de l’environnement en 1999, Prix de l’Innovation du Ministère Fédéral de l’Education et de la Recherche en 2005 entre autres).
@@ -617,7 +635,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barthlott, W. &amp; Ehler, N. (1977): Raster-Elektronenmikroskopie der Epidermis-Oberflächen von Spermatophyten. Trop. subtrop. Pflanzenwelt 19, Akad. Wiss. Lit. Mainz. F. Steiner Verlag, Stuttgart, 110
 Barthlott, W. (1990): Scanning electron microscopy of the epidermal surface in plants. In: Claugher, D. (ed.) Application of the scanning EM in taxonomy and functional morphology. Systematics Association's Special Volume. Clarendon Press, Oxford, 69-94
